--- a/order.xlsx
+++ b/order.xlsx
@@ -1,60 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Артикул</t>
+  </si>
   <si>
     <t>Количество</t>
   </si>
   <si>
-    <t>Штир-код</t>
+    <t>Название склада</t>
   </si>
   <si>
-    <t>6930864638481</t>
+    <t>Оптовый склад</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4820152612335</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>Склад Видное</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,25 +70,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,7 +122,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -167,6 +156,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -201,9 +191,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -235,20 +226,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -370,139 +357,104 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>3562540000</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>3562540000</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>